--- a/plots/countries/plot data/Germany.xlsx
+++ b/plots/countries/plot data/Germany.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>71.5817399687</v>
+        <v>73.29034984766</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>221.67100896505</v>
+        <v>221.72612622637</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>42.58719285283</v>
+        <v>42.58719287585</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>184.48025171379</v>
+        <v>184.42516074755</v>
       </c>
     </row>
     <row r="6">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>164.45725089957</v>
+        <v>164.4574706232</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>93.2778856472306</v>
+        <v>93.2779220698571</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>32.8803016520291</v>
+        <v>36.0272973674627</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>41.51991211224</v>
+        <v>41.55020820716</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>64.62640230846</v>
+        <v>66.51387463823</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>218.33392411017</v>
+        <v>218.33314327492</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>41.54666857285</v>
+        <v>41.54666859836</v>
       </c>
     </row>
     <row r="14">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>162.76452835937</v>
+        <v>162.76532313357</v>
       </c>
     </row>
     <row r="15">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>167.46185165591</v>
+        <v>167.46205785143</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>89.6115387319938</v>
+        <v>89.6106411972504</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-25.3307261400931</v>
+        <v>-12.8342876591353</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>43.06741505138</v>
+        <v>43.09638690982</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>62.88608277851</v>
+        <v>64.87464090509</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>199.60701398774</v>
+        <v>199.59929034316</v>
       </c>
     </row>
     <row r="22">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>38.98315815514</v>
+        <v>38.98315818285</v>
       </c>
     </row>
     <row r="23">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>151.46800813881</v>
+        <v>151.4757426916</v>
       </c>
     </row>
     <row r="24">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>173.31398774892</v>
+        <v>173.3141872028</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>89.5908355208649</v>
+        <v>89.591246813413</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-31.2787961346735</v>
+        <v>-17.5199138094423</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>43.66290516571</v>
+        <v>43.69055278935</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>61.97659082341</v>
+        <v>63.98893306009</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>206.76225094289</v>
+        <v>206.75440749245</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>40.25949389754</v>
+        <v>40.25949392548</v>
       </c>
     </row>
     <row r="32">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>140.48330453346</v>
+        <v>140.49115757369</v>
       </c>
     </row>
     <row r="33">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>177.70509198762</v>
+        <v>177.7051829411</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>90.8552716806146</v>
+        <v>90.8545316652311</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-30.7912933231269</v>
+        <v>-25.3226182794632</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>43.38427118438</v>
+        <v>43.41059457126</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>62.1466602351</v>
+        <v>64.01237693657</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>195.92890135103</v>
+        <v>195.92095406698</v>
       </c>
     </row>
     <row r="40">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>36.81857227523</v>
+        <v>36.81857230377</v>
       </c>
     </row>
     <row r="41">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>138.51664058203</v>
+        <v>138.52459708962</v>
       </c>
     </row>
     <row r="42">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>173.69714055237</v>
+        <v>173.69728444454</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>96.377446308637</v>
+        <v>96.3790243484582</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-25.2856621435861</v>
+        <v>-17.3633796322755</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>42.30682049751</v>
+        <v>42.33181793033</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>62.03697856827</v>
+        <v>64.10585996443</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>197.66655154839</v>
+        <v>197.67632423422</v>
       </c>
     </row>
     <row r="49">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>35.39718494202</v>
+        <v>35.39718497262</v>
       </c>
     </row>
     <row r="50">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>141.98598981609</v>
+        <v>141.97622964885</v>
       </c>
     </row>
     <row r="51">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>177.46902460195</v>
+        <v>177.46918286647</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>94.80935637349</v>
+        <v>94.8090551691281</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-18.6924638843588</v>
+        <v>-6.59004735578773</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>41.04097707735</v>
+        <v>41.06465372061</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>62.54869334693</v>
+        <v>64.69756798036</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>221.90223555768</v>
+        <v>221.91027120646</v>
       </c>
     </row>
     <row r="58">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>34.31577045465</v>
+        <v>34.31577048813</v>
       </c>
     </row>
     <row r="59">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>132.65871517994</v>
+        <v>132.65069140988</v>
       </c>
     </row>
     <row r="60">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>177.21281558131</v>
+        <v>177.2129516412</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>92.9181628889114</v>
+        <v>92.9200279084157</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-22.1766943685091</v>
+        <v>-7.1915708116244</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>39.2518149318</v>
+        <v>39.2695236606</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>61.39304061175</v>
+        <v>63.50805538702</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>207.49359101475</v>
+        <v>207.50087946978</v>
       </c>
     </row>
     <row r="67">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>33.60092250291</v>
+        <v>33.60092253822</v>
       </c>
     </row>
     <row r="68">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>136.62494486333</v>
+        <v>136.61766764157</v>
       </c>
     </row>
     <row r="69">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>177.55973560725</v>
+        <v>177.55987863554</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>93.5113690477178</v>
+        <v>93.5120598093191</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-21.5055968987356</v>
+        <v>-8.41162509678113</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>35.95248736439</v>
+        <v>35.96422989911</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>61.87253685951</v>
+        <v>63.40128279287</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>198.8356694579</v>
+        <v>198.83959071957</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>30.64768702541</v>
+        <v>30.64768706086</v>
       </c>
     </row>
     <row r="77">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>132.09855544085</v>
+        <v>132.09464462956</v>
       </c>
     </row>
     <row r="78">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>180.84645106344</v>
+        <v>180.84663672505</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>81.0440928128038</v>
+        <v>81.046010790946</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-20.8037405028255</v>
+        <v>-14.8070756984852</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>33.42756306596</v>
+        <v>33.43333953424</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>62.13874366683</v>
+        <v>63.90646064109</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>182.2689957641</v>
+        <v>182.26900498285</v>
       </c>
     </row>
     <row r="85">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>31.77772802366</v>
+        <v>31.77772806069</v>
       </c>
     </row>
     <row r="86">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>129.58566854577</v>
+        <v>129.58566824507</v>
       </c>
     </row>
     <row r="87">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>185.97419451862</v>
+        <v>185.97437327657</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>73.4458838333117</v>
+        <v>73.4461739621847</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-24.0697235218257</v>
+        <v>-10.2496699019578</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>31.44179862741</v>
+        <v>31.44701707772</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>61.48825572163</v>
+        <v>63.3976802577</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>175.34895995983</v>
+        <v>175.34896911029</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>29.62178499646</v>
+        <v>29.62178503392</v>
       </c>
     </row>
     <row r="95">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>125.90137409901</v>
+        <v>125.90137418083</v>
       </c>
     </row>
     <row r="96">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>182.017615467</v>
+        <v>182.01778373894</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>76.6951987957259</v>
+        <v>76.6964761771764</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.85829727701702</v>
+        <v>4.68839537364703</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>29.56779862444</v>
+        <v>29.57246003142</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>62.13417609276</v>
+        <v>63.87195643348</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>195.87977250222</v>
+        <v>195.87978102289</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>26.96213975518</v>
+        <v>26.96213979528</v>
       </c>
     </row>
     <row r="104">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>118.88526672278</v>
+        <v>118.88526672424</v>
       </c>
     </row>
     <row r="105">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>178.20365003042</v>
+        <v>178.20382086822</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>73.0891383352783</v>
+        <v>73.090514610544</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-13.122412991168</v>
+        <v>-2.86678689264057</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>27.56471843292</v>
+        <v>27.56882034788</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>60.06760494303</v>
+        <v>61.8356564376</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>182.57211074888</v>
+        <v>182.57211901126</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>25.5387945942</v>
+        <v>25.53879463474</v>
       </c>
     </row>
     <row r="113">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>118.22044617501</v>
+        <v>118.22044617432</v>
       </c>
     </row>
     <row r="114">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>175.80512331145</v>
+        <v>175.80530743973</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>71.512633864199</v>
+        <v>71.54080175442</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>19.7867627337651</v>
+        <v>27.300725992019</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>25.84414378006</v>
+        <v>25.84804038077</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>59.89118530147</v>
+        <v>61.81164704761</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>169.52724595554</v>
+        <v>169.52758655679</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>23.42458668857</v>
+        <v>23.42458672921</v>
       </c>
     </row>
     <row r="122">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>116.25005823966</v>
+        <v>114.93551463854</v>
       </c>
     </row>
     <row r="123">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>390.72403669729</v>
+        <v>392.04919927563</v>
       </c>
     </row>
     <row r="124">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>166.74040759031</v>
+        <v>166.74059846942</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>74.1088629768592</v>
+        <v>74.1623043990457</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>15.8691667451882</v>
+        <v>37.3218770404235</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>24.05857859382</v>
+        <v>24.06226903859</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>58.35861723223</v>
+        <v>60.34871371518</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>161.11601554598</v>
+        <v>161.11656842093</v>
       </c>
     </row>
     <row r="130">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>20.2978663185</v>
+        <v>20.29786635854</v>
       </c>
     </row>
     <row r="131">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>114.36979458971</v>
+        <v>113.18982692768</v>
       </c>
     </row>
     <row r="132">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>388.58065182901</v>
+        <v>389.76755129715</v>
       </c>
     </row>
     <row r="133">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>161.16457229605</v>
+        <v>161.16475884263</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>75.8518109630845</v>
+        <v>75.9312304243098</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>12.4603848645349</v>
+        <v>25.270206502916</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>21.48573346631</v>
+        <v>21.48921753881</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>58.30427605435</v>
+        <v>60.40337311221</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>164.96851714015</v>
+        <v>164.96990493078</v>
       </c>
     </row>
     <row r="139">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>18.25865178928</v>
+        <v>18.2586518303</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>115.04080626298</v>
+        <v>113.58517987984</v>
       </c>
     </row>
     <row r="141">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>381.37365670611</v>
+        <v>382.84153157116</v>
       </c>
     </row>
     <row r="142">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>157.05989537485</v>
+        <v>157.05999403161</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>72.6896299482216</v>
+        <v>72.7949254029125</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>8.86519559286149</v>
+        <v>21.3172303931426</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>19.82743757949</v>
+        <v>19.83065833875</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>57.29082528145</v>
+        <v>59.46249876124</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>171.70917492106</v>
+        <v>171.71290466081</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>16.25742761194</v>
+        <v>16.25742765184</v>
       </c>
     </row>
     <row r="149">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>119.00577933416</v>
+        <v>117.84052798118</v>
       </c>
     </row>
     <row r="150">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>383.9834421229</v>
+        <v>385.1763905352</v>
       </c>
     </row>
     <row r="151">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>161.97046800451</v>
+        <v>161.97061580144</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>73.0242260274002</v>
+        <v>73.088753712617</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>2.21302068367435</v>
+        <v>11.9287463848785</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>17.75535546539</v>
+        <v>17.75831081986</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>57.80263651269</v>
+        <v>59.87009250991</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>129.3178247771</v>
+        <v>129.32484206991</v>
       </c>
     </row>
     <row r="157">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>14.62815189568</v>
+        <v>14.62815193613</v>
       </c>
     </row>
     <row r="158">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>123.96385166264</v>
+        <v>122.84599034812</v>
       </c>
     </row>
     <row r="159">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>388.85649926137</v>
+        <v>390.02470281681</v>
       </c>
     </row>
     <row r="160">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>153.82029695479</v>
+        <v>153.82045073251</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>76.1266688586631</v>
+        <v>76.2349470933054</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>5.88585097503132</v>
+        <v>3.67232455154096</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>16.23407032661</v>
+        <v>16.23675909317</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>57.97562997228</v>
+        <v>60.23414112617</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>154.99830056108</v>
+        <v>155.00435004143</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>14.06885020291</v>
+        <v>14.06885024384</v>
       </c>
     </row>
     <row r="167">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>125.19422275955</v>
+        <v>123.50521644179</v>
       </c>
     </row>
     <row r="168">
@@ -3825,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="n">
-        <v>370.74418234824</v>
+        <v>372.49156498536</v>
       </c>
     </row>
     <row r="169">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>158.81384399468</v>
+        <v>158.81400768228</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>71.9681507595404</v>
+        <v>72.0783935866392</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-5.98565548401405</v>
+        <v>-2.86048391988046</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>14.83677246595</v>
+        <v>14.83927018252</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>58.24616516034</v>
+        <v>60.52203859762</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>144.44568192895</v>
+        <v>144.45446049949</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>12.21076143392</v>
+        <v>12.210761478</v>
       </c>
     </row>
     <row r="176">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>107.47369840365</v>
+        <v>105.83306659431</v>
       </c>
     </row>
     <row r="177">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>346.63045833217</v>
+        <v>348.33369358815</v>
       </c>
     </row>
     <row r="178">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>153.34987920955</v>
+        <v>153.35002469226</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>64.0033832346039</v>
+        <v>64.1120210331447</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-10.5412179690311</v>
+        <v>0.272430630126479</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>13.44317971351</v>
+        <v>13.44548809807</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>58.01706294189</v>
+        <v>60.18516903557</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>150.72369328158</v>
+        <v>150.72798106174</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>11.91643221377</v>
+        <v>11.91643225776</v>
       </c>
     </row>
     <row r="185">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>123.48552140706</v>
+        <v>122.17646663299</v>
       </c>
     </row>
     <row r="186">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>358.15743269217</v>
+        <v>359.52952492273</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>151.63915439586</v>
+        <v>151.6392825648</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>61.7826442103826</v>
+        <v>61.8830179432182</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-1.11413126133709</v>
+        <v>5.30499334312676</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>12.18983458731</v>
+        <v>12.19195180441</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>58.00473848865</v>
+        <v>60.2299939943</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>132.97889416065</v>
+        <v>132.98527253843</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>11.46500594096</v>
+        <v>11.46500598613</v>
       </c>
     </row>
     <row r="194">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>120.01714358827</v>
+        <v>118.88043847358</v>
       </c>
     </row>
     <row r="195">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>353.79419628511</v>
+        <v>355.00134322389</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>153.5481554131</v>
+        <v>153.54828264125</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>63.1935438280979</v>
+        <v>63.3155114812004</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-8.37469293743109</v>
+        <v>-1.21614584990716</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>11.30730221417</v>
+        <v>11.30931181835</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>58.51813823807</v>
+        <v>60.81425443404</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>138.3174408513</v>
+        <v>138.32909994912</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>12.05060840755</v>
+        <v>12.05060845071</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>117.65732970385</v>
+        <v>116.87912181306</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>365.17260664193</v>
+        <v>366.0447453414</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>151.89100996895</v>
+        <v>151.89400637929</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>60.4091568322761</v>
+        <v>60.5018955172751</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-15.8115322038085</v>
+        <v>2.07475470918973</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>10.48154730221</v>
+        <v>10.48345334411</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>59.44563983653</v>
+        <v>61.7345835319</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>147.12270855224</v>
+        <v>147.13285023372</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>11.18336318803</v>
+        <v>11.18336322995</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>118.03821016283</v>
+        <v>116.68045626448</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>369.55982691923</v>
+        <v>371.02976980437</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>156.16878426744</v>
+        <v>156.17122339822</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>60.2699001176229</v>
+        <v>60.3659547872145</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-13.9638641007852</v>
+        <v>-0.46038118857728</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>9.68593220129</v>
+        <v>9.6877307808</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>60.35021401506</v>
+        <v>62.78548794994</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>128.81874870672</v>
+        <v>128.83364628999</v>
       </c>
     </row>
     <row r="220">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>116.80250530681</v>
+        <v>115.63749827437</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>350.4275132272</v>
+        <v>351.69322360492</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>155.0607713272</v>
+        <v>155.06366180457</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>60.5462786244862</v>
+        <v>60.6517953968105</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-6.12034424668773</v>
+        <v>10.1469376594004</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>9.06059807673</v>
+        <v>9.06232348551</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>60.58056849433</v>
+        <v>62.80863927759</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>134.49925621114</v>
+        <v>134.55260390721</v>
       </c>
     </row>
     <row r="229">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>125.14587720479</v>
+        <v>123.15730752245</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>338.35794136593</v>
+        <v>340.41979340177</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>162.92578376106</v>
+        <v>162.92840773578</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>59.7785844321442</v>
+        <v>59.8614455329457</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-7.81719400595791</v>
+        <v>5.73139732222995</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>8.44182739733</v>
+        <v>8.44347642945</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>60.10145973097</v>
+        <v>62.46637884065</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>129.89261707251</v>
+        <v>129.94612571618</v>
       </c>
     </row>
     <row r="238">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>127.11689352564</v>
+        <v>125.26029402074</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>334.72335935406</v>
+        <v>336.64491239089</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>164.86364176373</v>
+        <v>164.86397446742</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>61.4864074548136</v>
+        <v>61.5775125885828</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-9.76635560354809</v>
+        <v>8.87680979490694</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>7.90279845261</v>
+        <v>7.90437580893</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>59.29693816685</v>
+        <v>61.43070885539</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>128.95211670349</v>
+        <v>129.01428796394</v>
       </c>
     </row>
     <row r="247">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>128.94635658556</v>
+        <v>127.09564243151</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>315.10790899333</v>
+        <v>317.00931661976</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>166.44443960924</v>
+        <v>166.44466775436</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>65.3478313601402</v>
+        <v>65.4884747764585</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-6.15202296229102</v>
+        <v>3.9870799610431</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>7.52428938901</v>
+        <v>7.52582704765</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>58.29353132687</v>
+        <v>60.50188413574</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>123.95664951955</v>
+        <v>124.0274407494</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>6.66597647782</v>
+        <v>6.64734579382</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>124.03418798647</v>
+        <v>122.43050315164</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>302.45720450814</v>
+        <v>302.85673757044</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>166.72738651658</v>
+        <v>166.72759887091</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>62.4372328342043</v>
+        <v>62.5355563563266</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>0.759909472096376</v>
+        <v>83.1970017143506</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>7.12977610614</v>
+        <v>7.13127526069</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>57.11769512212</v>
+        <v>59.36990159437</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>130.06120465253</v>
+        <v>130.14650138093</v>
       </c>
     </row>
     <row r="265">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>121.40740370419</v>
+        <v>119.87616156794</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>251.97879778325</v>
+        <v>252.36991567581</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>165.53361602126</v>
+        <v>165.53386875986</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>59.3542119794481</v>
+        <v>59.4421634330635</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-2.46175953172378</v>
+        <v>72.120991917303</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>6.60486260416</v>
+        <v>6.60632366483</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>56.04646997204</v>
+        <v>58.25017344186</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>130.52266061483</v>
+        <v>130.62108026024</v>
       </c>
     </row>
     <row r="274">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>118.73977269657</v>
+        <v>117.23115399788</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>213.81582798316</v>
+        <v>214.16805675171</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>147.16315615407</v>
+        <v>147.16342576112</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>55.2529255455406</v>
+        <v>55.3460936232527</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>5.79751873115048</v>
+        <v>76.6559319475936</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>6.12002046191</v>
+        <v>6.12144344042</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>54.30846441115</v>
+        <v>56.51733644661</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>127.46923439769</v>
+        <v>127.68052524896</v>
       </c>
     </row>
     <row r="283">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>124.55417459484</v>
+        <v>123.04226602954</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>241.17417377845</v>
+        <v>241.57752891091</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>145.24771025233</v>
+        <v>145.44627018884</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>57.0461396348124</v>
+        <v>57.2507307844122</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>2.6218458753202</v>
+        <v>63.0872307218757</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>5.80308904034</v>
+        <v>5.91543604354</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>53.34873482002</v>
+        <v>55.65443292489</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>118.62874424445</v>
+        <v>118.76222373469</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>3.76107679108</v>
+        <v>3.75864335708</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>115.80321331127</v>
+        <v>112.53130392685</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>252.0726247968</v>
+        <v>251.56638925067</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>148.62866608891</v>
+        <v>149.0362610376</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>52.0596378878611</v>
+        <v>51.8338452654284</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>4.3816520253734</v>
+        <v>75.6034658647333</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>5.66040924852</v>
+        <v>5.64961391029</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>54.79209863094</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>111.10088826248</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>3.57244592749</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>105.76926599302</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>198.06164429609</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>146.07948545909</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>47.1544726856603</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>68.6528051161625</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>5.4900232891</v>
       </c>
     </row>
   </sheetData>
